--- a/Service Tile Counts.xlsx
+++ b/Service Tile Counts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ethan.bowen/Documents/Git/ethan/archi-crate/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ethan.bowen/Documents/Git/ethan/arch-crate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A05427-C8C7-D049-85BB-24C317307811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10189B7-F32B-9042-8C96-AE832C542635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35840" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{8C45AB3D-262F-5F48-8B21-4D4B60EF4821}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{8C45AB3D-262F-5F48-8B21-4D4B60EF4821}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
